--- a/Fitting Parameters/parameters.xlsx
+++ b/Fitting Parameters/parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1ed250f2050058a0/progmrams/Guleria2012/Fitting Parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="93" documentId="11_AD4D066CA252ABDACC1048B6C911F2E273EEDF49" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{464E18D7-9E6D-472E-972F-9622BA6E47F4}"/>
+  <xr:revisionPtr revIDLastSave="177" documentId="11_AD4D066CA252ABDACC1048B6C911F2E273EEDF49" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCD98C01-C1B7-4502-B7EE-95ECCC562715}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7810" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>a1</t>
     <phoneticPr fontId="1"/>
@@ -67,10 +67,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>u3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>u31</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -79,26 +75,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>y0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>y31</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>y32</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GKW3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GKW2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Llam</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -119,31 +95,75 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>free</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GKW3+MD</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>U=const + aL2</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MD3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MD2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>const</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>aL2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MD1_k&lt;2.5/fm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MD2_k&lt;2.5/fm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MD3_k&lt;1.0/fm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GKW2+MD1_lower</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GKW2+MD1_upper</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GKW2+MD1_medium</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GKW3+MD2_lower</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GKW3+MD2_upper</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GKW3+MD2_medium</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GKW3+MD3_lower</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GKW3+MD3_upper</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GKW3+MD3_medium</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>u0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GKW2_medium</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GKW3_medium</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -151,7 +171,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +181,22 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
@@ -187,8 +223,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -469,30 +509,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="11.9140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B1">
         <f>0.16</f>
         <v>0.16</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -509,104 +549,539 @@
         <v>4</v>
       </c>
       <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>8</v>
-      </c>
-      <c r="K2" t="s">
-        <v>9</v>
       </c>
       <c r="L2" t="s">
         <v>10</v>
       </c>
       <c r="M2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" t="s">
         <v>11</v>
       </c>
-      <c r="N2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" t="s">
-        <v>16</v>
-      </c>
-      <c r="P2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
+        <v>30</v>
+      </c>
+      <c r="B3" s="1">
         <v>-154.9</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3">
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
         <f>142.4/($B$1)^(4/3)</f>
         <v>1639.3940168949719</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <f>-21.4/$B$1^(5/3)</f>
         <v>-453.81669527446104</v>
       </c>
-      <c r="O3">
+      <c r="G3" s="1">
+        <f>B3</f>
+        <v>-154.9</v>
+      </c>
+      <c r="H3" s="1">
+        <f>C3</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f>3*H3</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f>3/8*E3</f>
+        <v>614.77275633561442</v>
+      </c>
+      <c r="K3">
+        <f>8/3*F3</f>
+        <v>-1210.1778540652294</v>
+      </c>
+      <c r="L3">
         <v>-33.83</v>
       </c>
-      <c r="P3">
+      <c r="M3">
         <v>-1.825</v>
       </c>
-      <c r="Q3">
+      <c r="N3">
         <v>356</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4">
+        <v>31</v>
+      </c>
+      <c r="B4" s="1">
         <v>-80.099999999999994</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4">
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
         <f>0.16/($B$1^(4/3))</f>
         <v>1.8420157493201932</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <f>50.4/($B$1^(5/3))</f>
         <v>1068.8019365342448</v>
       </c>
-      <c r="O4">
+      <c r="G4" s="1">
+        <f t="shared" ref="G4:G13" si="0">B4</f>
+        <v>-80.099999999999994</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" ref="H4:H13" si="1">C4</f>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I13" si="2">3*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J13" si="3">3/8*E4</f>
+        <v>0.69075590599507242</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K13" si="4">8/3*F4</f>
+        <v>2850.1384974246525</v>
+      </c>
+      <c r="L4">
         <v>-29.55</v>
       </c>
-      <c r="P4">
+      <c r="M4">
         <v>12.34</v>
       </c>
-      <c r="Q4">
+      <c r="N4">
         <v>504.8</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2">
+        <v>-200.610407133845</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5.3607844295563201</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>-739.56857915185105</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1326.7069973697901</v>
+      </c>
+      <c r="G5" s="1">
+        <f>B5</f>
+        <v>-200.610407133845</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="1"/>
+        <v>5.3607844295563201</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>16.082353288668962</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="3"/>
+        <v>-277.33821718194417</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="4"/>
+        <v>3537.8853263194401</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" t="s">
         <v>21</v>
+      </c>
+      <c r="B6" s="2">
+        <v>-0.917754312889557</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5.3607844295563201</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>-1369.9242059711801</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1844.20674700889</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.917754312889557</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="1"/>
+        <v>5.3607844295563201</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>16.082353288668962</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="3"/>
+        <v>-513.72157723919258</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="4"/>
+        <v>4917.8846586903728</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1">
+        <f>(B5+B6)/2</f>
+        <v>-100.76408072336729</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" ref="C7:N7" si="5">(C5+C6)/2</f>
+        <v>5.3607844295563201</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="5"/>
+        <v>-1054.7463925615157</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="5"/>
+        <v>1585.4568721893402</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" ref="G7" si="6">(G5+G6)/2</f>
+        <v>-100.76408072336729</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" ref="H7" si="7">(H5+H6)/2</f>
+        <v>5.3607844295563201</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" ref="I7" si="8">(I5+I6)/2</f>
+        <v>16.082353288668962</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" ref="J7" si="9">(J5+J6)/2</f>
+        <v>-395.52989721056838</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" ref="K7" si="10">(K5+K6)/2</f>
+        <v>4227.8849925049062</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" ref="L7" si="11">(L5+L6)/2</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" ref="M7" si="12">(M5+M6)/2</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" ref="N7" si="13">(N5+N6)/2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="2">
+        <v>-177.718668385428</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5.9729443300258502</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>-930.58457047720697</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1671.77503482729</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>-177.718668385428</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="1"/>
+        <v>5.9729443300258502</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>17.918832990077551</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>-348.96921392895263</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="4"/>
+        <v>4458.0667595394398</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2">
+        <v>-1.0024785663498901</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5.9729443300258502</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>-1637.7941455328701</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2399.15656825306</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.0024785663498901</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="1"/>
+        <v>5.9729443300258502</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>17.918832990077551</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>-614.17280457482627</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="4"/>
+        <v>6397.7508486748266</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1">
+        <f>(B8+B9)/2</f>
+        <v>-89.360573475888941</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" ref="C10:N10" si="14">(C8+C9)/2</f>
+        <v>5.9729443300258502</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="14"/>
+        <v>-1284.1893580050385</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="14"/>
+        <v>2035.4658015401751</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" ref="G10" si="15">(G8+G9)/2</f>
+        <v>-89.360573475888941</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" ref="H10" si="16">(H8+H9)/2</f>
+        <v>5.9729443300258502</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" ref="I10" si="17">(I8+I9)/2</f>
+        <v>17.918832990077551</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" ref="J10" si="18">(J8+J9)/2</f>
+        <v>-481.57100925188945</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" ref="K10" si="19">(K8+K9)/2</f>
+        <v>5427.9088041071336</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" ref="L10" si="20">(L8+L9)/2</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" ref="M10" si="21">(M8+M9)/2</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" ref="N10" si="22">(N8+N9)/2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="2">
+        <v>-177.66098957954401</v>
+      </c>
+      <c r="C11" s="1">
+        <v>6.7986818347553299</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>-930.76284673540499</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1668.92320783526</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="0"/>
+        <v>-177.66098957954401</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="1"/>
+        <v>6.7986818347553299</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>20.396045504265992</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>-349.03606752577684</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="4"/>
+        <v>4450.461887560693</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="2">
+        <v>-172.20192785998299</v>
+      </c>
+      <c r="C12" s="1">
+        <v>6.7986818347553299</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>-1109.6546153618301</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1994.3191090089499</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="0"/>
+        <v>-172.20192785998299</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="1"/>
+        <v>6.7986818347553299</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>20.396045504265992</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>-416.12048076068629</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="4"/>
+        <v>5318.1842906905331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13">
+        <f>(B11+B12)/2</f>
+        <v>-174.9314587197635</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:N13" si="23">(C11+C12)/2</f>
+        <v>6.7986818347553299</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="23"/>
+        <v>-1020.2087310486176</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="23"/>
+        <v>1831.6211584221051</v>
+      </c>
+      <c r="G13">
+        <f>(G11+G12)/2</f>
+        <v>-174.9314587197635</v>
+      </c>
+      <c r="H13">
+        <f t="shared" ref="H13" si="24">(H11+H12)/2</f>
+        <v>6.7986818347553299</v>
+      </c>
+      <c r="I13">
+        <f t="shared" ref="I13" si="25">(I11+I12)/2</f>
+        <v>20.396045504265992</v>
+      </c>
+      <c r="J13">
+        <f t="shared" ref="J13" si="26">(J11+J12)/2</f>
+        <v>-382.57827414323157</v>
+      </c>
+      <c r="K13">
+        <f t="shared" ref="K13" si="27">(K11+K12)/2</f>
+        <v>4884.3230891256135</v>
+      </c>
+      <c r="L13">
+        <f t="shared" ref="L13" si="28">(L11+L12)/2</f>
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <f t="shared" ref="M13" si="29">(M11+M12)/2</f>
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <f t="shared" ref="N13" si="30">(N11+N12)/2</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -618,46 +1093,60 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7DDAF3C-3C61-4D75-A461-FDF7E325E73E}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="14.4140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B3">
-        <v>-28.278161390790601</v>
+        <v>-29.098371987741601</v>
       </c>
       <c r="C3">
-        <v>5.9729443300258502</v>
+        <v>5.3607844295563201</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B4">
+        <v>-28.278161390790601</v>
+      </c>
+      <c r="C4">
+        <v>5.9729443300258502</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
         <v>-29.953285077587601</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>6.7986818347553299</v>
       </c>
     </row>

--- a/Fitting Parameters/parameters.xlsx
+++ b/Fitting Parameters/parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1ed250f2050058a0/progmrams/Guleria2012/Fitting Parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="177" documentId="11_AD4D066CA252ABDACC1048B6C911F2E273EEDF49" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCD98C01-C1B7-4502-B7EE-95ECCC562715}"/>
+  <xr:revisionPtr revIDLastSave="248" documentId="11_AD4D066CA252ABDACC1048B6C911F2E273EEDF49" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AD018BB-56D6-47AC-9366-7326AFC03F23}"/>
   <bookViews>
     <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -171,7 +171,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,6 +202,12 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -223,11 +229,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -509,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -521,568 +532,618 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="2">
         <f>0.16</f>
         <v>0.16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="1">
-        <v>-154.9</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="B3" s="2">
+        <f>-154.9/($B$1)</f>
+        <v>-968.125</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
         <f>142.4/($B$1)^(4/3)</f>
         <v>1639.3940168949719</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <f>-21.4/$B$1^(5/3)</f>
         <v>-453.81669527446104</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="2">
         <f>B3</f>
-        <v>-154.9</v>
-      </c>
-      <c r="H3" s="1">
+        <v>-968.125</v>
+      </c>
+      <c r="H3" s="2">
         <f>C3</f>
         <v>0</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="2">
         <f>3*H3</f>
         <v>0</v>
       </c>
-      <c r="J3">
-        <f>3/8*E3</f>
-        <v>614.77275633561442</v>
-      </c>
-      <c r="K3">
+      <c r="J3" s="2">
+        <f>8/3*E3</f>
+        <v>4371.717378386591</v>
+      </c>
+      <c r="K3" s="2">
         <f>8/3*F3</f>
         <v>-1210.1778540652294</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="2">
         <v>-33.83</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="2">
         <v>-1.825</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="2">
         <v>356</v>
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="1">
-        <v>-80.099999999999994</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="B4" s="2">
+        <f>-80.1/($B$1)</f>
+        <v>-500.62499999999994</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
         <f>0.16/($B$1^(4/3))</f>
         <v>1.8420157493201932</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <f>50.4/($B$1^(5/3))</f>
         <v>1068.8019365342448</v>
       </c>
-      <c r="G4" s="1">
-        <f t="shared" ref="G4:G13" si="0">B4</f>
-        <v>-80.099999999999994</v>
-      </c>
-      <c r="H4" s="1">
-        <f t="shared" ref="H4:H13" si="1">C4</f>
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <f t="shared" ref="I4:I13" si="2">3*H4</f>
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <f t="shared" ref="J4:J13" si="3">3/8*E4</f>
-        <v>0.69075590599507242</v>
-      </c>
-      <c r="K4">
-        <f t="shared" ref="K4:K13" si="4">8/3*F4</f>
+      <c r="G4" s="2">
+        <f t="shared" ref="G4:G12" si="0">B4</f>
+        <v>-500.62499999999994</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" ref="H4:H12" si="1">C4</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" ref="I4:I12" si="2">3*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <f>8/3*E4</f>
+        <v>4.9120419981871812</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" ref="K4:K12" si="3">8/3*F4</f>
         <v>2850.1384974246525</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="2">
         <v>-29.55</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="2">
         <v>12.34</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="2">
         <v>504.8</v>
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="2">
-        <v>-200.610407133845</v>
-      </c>
-      <c r="C5" s="1">
-        <v>5.3607844295563201</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>-739.56857915185105</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1326.7069973697901</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="B5" s="3">
+        <v>-0.891698132616356</v>
+      </c>
+      <c r="C5" s="2">
+        <v>32.293882105765803</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>-1342.8741868801201</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1679.0786465219901</v>
+      </c>
+      <c r="G5" s="2">
         <f>B5</f>
-        <v>-200.610407133845</v>
-      </c>
-      <c r="H5" s="1">
+        <v>-0.891698132616356</v>
+      </c>
+      <c r="H5" s="2">
         <f t="shared" si="1"/>
-        <v>5.3607844295563201</v>
-      </c>
-      <c r="I5">
+        <v>32.293882105765803</v>
+      </c>
+      <c r="I5" s="2">
         <f t="shared" si="2"/>
-        <v>16.082353288668962</v>
-      </c>
-      <c r="J5">
+        <v>96.88164631729741</v>
+      </c>
+      <c r="J5" s="2">
+        <f>8/3*E5</f>
+        <v>-3580.9978316803199</v>
+      </c>
+      <c r="K5" s="2">
         <f t="shared" si="3"/>
-        <v>-277.33821718194417</v>
-      </c>
-      <c r="K5">
+        <v>4477.543057391973</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="3">
+        <v>-0.91775431287383902</v>
+      </c>
+      <c r="C6" s="2">
+        <v>32.293882105765803</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>-1369.9242059957701</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1746.7755078704399</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.91775431287383902</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="1"/>
+        <v>32.293882105765803</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="2"/>
+        <v>96.88164631729741</v>
+      </c>
+      <c r="J6" s="2">
+        <f>8/3*E6</f>
+        <v>-3653.1312159887202</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" si="3"/>
+        <v>4658.0680209878392</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="2">
+        <f>(B5+B6)/2</f>
+        <v>-0.90472622274509751</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" ref="C7:F7" si="4">(C5+C6)/2</f>
+        <v>32.293882105765803</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
         <f t="shared" si="4"/>
-        <v>3537.8853263194401</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="2">
-        <v>-0.917754312889557</v>
-      </c>
-      <c r="C6" s="1">
-        <v>5.3607844295563201</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>-1369.9242059711801</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1844.20674700889</v>
-      </c>
-      <c r="G6" s="1">
+        <v>-1356.3991964379452</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="4"/>
+        <v>1712.9270771962151</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" ref="G7" si="5">(G5+G6)/2</f>
+        <v>-0.90472622274509751</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" ref="H7" si="6">(H5+H6)/2</f>
+        <v>32.293882105765803</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" ref="I7" si="7">(I5+I6)/2</f>
+        <v>96.88164631729741</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" ref="J7" si="8">(J5+J6)/2</f>
+        <v>-3617.0645238345201</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" ref="K7" si="9">(K5+K6)/2</f>
+        <v>4567.8055391899061</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" ref="L7" si="10">(L5+L6)/2</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <f t="shared" ref="M7" si="11">(M5+M6)/2</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <f t="shared" ref="N7" si="12">(N5+N6)/2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1">
+        <v>-180.63583418075299</v>
+      </c>
+      <c r="C8">
+        <v>35.981592349576601</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>-953.84632301379497</v>
+      </c>
+      <c r="F8">
+        <v>1605.59507537952</v>
+      </c>
+      <c r="G8" s="2">
         <f t="shared" si="0"/>
-        <v>-0.917754312889557</v>
-      </c>
-      <c r="H6" s="1">
+        <v>-180.63583418075299</v>
+      </c>
+      <c r="H8" s="2">
         <f t="shared" si="1"/>
-        <v>5.3607844295563201</v>
-      </c>
-      <c r="I6">
+        <v>35.981592349576601</v>
+      </c>
+      <c r="I8" s="2">
         <f t="shared" si="2"/>
-        <v>16.082353288668962</v>
-      </c>
-      <c r="J6">
+        <v>107.9447770487298</v>
+      </c>
+      <c r="J8" s="2">
+        <f>8/3*E8</f>
+        <v>-2543.5901947034531</v>
+      </c>
+      <c r="K8" s="2">
         <f t="shared" si="3"/>
-        <v>-513.72157723919258</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="4"/>
-        <v>4917.8846586903728</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="1">
-        <f>(B5+B6)/2</f>
-        <v>-100.76408072336729</v>
-      </c>
-      <c r="C7" s="1">
-        <f t="shared" ref="C7:N7" si="5">(C5+C6)/2</f>
-        <v>5.3607844295563201</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" si="5"/>
-        <v>-1054.7463925615157</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" si="5"/>
-        <v>1585.4568721893402</v>
-      </c>
-      <c r="G7" s="1">
-        <f t="shared" ref="G7" si="6">(G5+G6)/2</f>
-        <v>-100.76408072336729</v>
-      </c>
-      <c r="H7" s="1">
-        <f t="shared" ref="H7" si="7">(H5+H6)/2</f>
-        <v>5.3607844295563201</v>
-      </c>
-      <c r="I7" s="1">
-        <f t="shared" ref="I7" si="8">(I5+I6)/2</f>
-        <v>16.082353288668962</v>
-      </c>
-      <c r="J7" s="1">
-        <f t="shared" ref="J7" si="9">(J5+J6)/2</f>
-        <v>-395.52989721056838</v>
-      </c>
-      <c r="K7" s="1">
-        <f t="shared" ref="K7" si="10">(K5+K6)/2</f>
-        <v>4227.8849925049062</v>
-      </c>
-      <c r="L7" s="1">
-        <f t="shared" ref="L7" si="11">(L5+L6)/2</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="1">
-        <f t="shared" ref="M7" si="12">(M5+M6)/2</f>
-        <v>0</v>
-      </c>
-      <c r="N7" s="1">
-        <f t="shared" ref="N7" si="13">(N5+N6)/2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="2">
-        <v>-177.718668385428</v>
-      </c>
-      <c r="C8" s="1">
-        <v>5.9729443300258502</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>-930.58457047720697</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1671.77503482729</v>
-      </c>
-      <c r="G8" s="1">
+        <v>4281.5868676787195</v>
+      </c>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="3">
+        <v>-1.00247856635217</v>
+      </c>
+      <c r="C9" s="2">
+        <v>35.981592349576601</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>-1637.7941455303501</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2290.5994391150098</v>
+      </c>
+      <c r="G9" s="2">
+        <f>B9</f>
+        <v>-1.00247856635217</v>
+      </c>
+      <c r="H9" s="2">
+        <f>C9</f>
+        <v>35.981592349576601</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="2"/>
+        <v>107.9447770487298</v>
+      </c>
+      <c r="J9" s="2">
+        <f>8/3*E9</f>
+        <v>-4367.4510547476002</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" si="3"/>
+        <v>6108.2651709733591</v>
+      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="2">
+        <f>(B8+B9)/2</f>
+        <v>-90.819156373552588</v>
+      </c>
+      <c r="C10" s="2">
+        <f>(C8+C9)/2</f>
+        <v>35.981592349576601</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" ref="E10:F10" si="13">(E8+E9)/2</f>
+        <v>-1295.8202342720724</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="13"/>
+        <v>1948.0972572472649</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" ref="G10" si="14">(G8+G9)/2</f>
+        <v>-90.819156373552588</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" ref="H10" si="15">(H8+H9)/2</f>
+        <v>35.981592349576601</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" ref="I10" si="16">(I8+I9)/2</f>
+        <v>107.9447770487298</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" ref="J10" si="17">(J8+J9)/2</f>
+        <v>-3455.5206247255264</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" ref="K10" si="18">(K8+K9)/2</f>
+        <v>5194.9260193260398</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" ref="L10" si="19">(L8+L9)/2</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <f t="shared" ref="M10" si="20">(M8+M9)/2</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <f t="shared" ref="N10" si="21">(N8+N9)/2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="3">
+        <v>-1.03492527391509</v>
+      </c>
+      <c r="C11" s="2">
+        <v>40.955914667222899</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>-1465.8190873839001</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1945.04402240684</v>
+      </c>
+      <c r="G11" s="2">
         <f t="shared" si="0"/>
-        <v>-177.718668385428</v>
-      </c>
-      <c r="H8" s="1">
+        <v>-1.03492527391509</v>
+      </c>
+      <c r="H11" s="2">
         <f t="shared" si="1"/>
-        <v>5.9729443300258502</v>
-      </c>
-      <c r="I8">
+        <v>40.955914667222899</v>
+      </c>
+      <c r="I11" s="2">
         <f t="shared" si="2"/>
-        <v>17.918832990077551</v>
-      </c>
-      <c r="J8">
+        <v>122.8677440016687</v>
+      </c>
+      <c r="J11" s="2">
+        <f>8/3*E11</f>
+        <v>-3908.8508996904002</v>
+      </c>
+      <c r="K11" s="2">
         <f t="shared" si="3"/>
-        <v>-348.96921392895263</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="4"/>
-        <v>4458.0667595394398</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="2">
-        <v>-1.0024785663498901</v>
-      </c>
-      <c r="C9" s="1">
-        <v>5.9729443300258502</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>-1637.7941455328701</v>
-      </c>
-      <c r="F9" s="1">
-        <v>2399.15656825306</v>
-      </c>
-      <c r="G9" s="1">
+        <v>5186.7840597515733</v>
+      </c>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="3">
+        <v>-1.06831394238702</v>
+      </c>
+      <c r="C12" s="2">
+        <v>40.955914667222899</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>-1627.6293386791499</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2257.50663804239</v>
+      </c>
+      <c r="G12" s="2">
         <f t="shared" si="0"/>
-        <v>-1.0024785663498901</v>
-      </c>
-      <c r="H9" s="1">
+        <v>-1.06831394238702</v>
+      </c>
+      <c r="H12" s="2">
         <f t="shared" si="1"/>
-        <v>5.9729443300258502</v>
-      </c>
-      <c r="I9">
+        <v>40.955914667222899</v>
+      </c>
+      <c r="I12" s="2">
         <f t="shared" si="2"/>
-        <v>17.918832990077551</v>
-      </c>
-      <c r="J9">
+        <v>122.8677440016687</v>
+      </c>
+      <c r="J12" s="2">
+        <f>8/3*E12</f>
+        <v>-4340.3449031443997</v>
+      </c>
+      <c r="K12" s="2">
         <f t="shared" si="3"/>
-        <v>-614.17280457482627</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="4"/>
-        <v>6397.7508486748266</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="1">
-        <f>(B8+B9)/2</f>
-        <v>-89.360573475888941</v>
-      </c>
-      <c r="C10" s="1">
-        <f t="shared" ref="C10:N10" si="14">(C8+C9)/2</f>
-        <v>5.9729443300258502</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <f t="shared" si="14"/>
-        <v>-1284.1893580050385</v>
-      </c>
-      <c r="F10" s="1">
-        <f t="shared" si="14"/>
-        <v>2035.4658015401751</v>
-      </c>
-      <c r="G10" s="1">
-        <f t="shared" ref="G10" si="15">(G8+G9)/2</f>
-        <v>-89.360573475888941</v>
-      </c>
-      <c r="H10" s="1">
-        <f t="shared" ref="H10" si="16">(H8+H9)/2</f>
-        <v>5.9729443300258502</v>
-      </c>
-      <c r="I10" s="1">
-        <f t="shared" ref="I10" si="17">(I8+I9)/2</f>
-        <v>17.918832990077551</v>
-      </c>
-      <c r="J10" s="1">
-        <f t="shared" ref="J10" si="18">(J8+J9)/2</f>
-        <v>-481.57100925188945</v>
-      </c>
-      <c r="K10" s="1">
-        <f t="shared" ref="K10" si="19">(K8+K9)/2</f>
-        <v>5427.9088041071336</v>
-      </c>
-      <c r="L10" s="1">
-        <f t="shared" ref="L10" si="20">(L8+L9)/2</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="1">
-        <f t="shared" ref="M10" si="21">(M8+M9)/2</f>
-        <v>0</v>
-      </c>
-      <c r="N10" s="1">
-        <f t="shared" ref="N10" si="22">(N8+N9)/2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="2">
-        <v>-177.66098957954401</v>
-      </c>
-      <c r="C11" s="1">
-        <v>6.7986818347553299</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>-930.76284673540499</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1668.92320783526</v>
-      </c>
-      <c r="G11" s="1">
-        <f t="shared" si="0"/>
-        <v>-177.66098957954401</v>
-      </c>
-      <c r="H11" s="1">
-        <f t="shared" si="1"/>
-        <v>6.7986818347553299</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="2"/>
-        <v>20.396045504265992</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="3"/>
-        <v>-349.03606752577684</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="4"/>
-        <v>4450.461887560693</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="2">
-        <v>-172.20192785998299</v>
-      </c>
-      <c r="C12" s="1">
-        <v>6.7986818347553299</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>-1109.6546153618301</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1994.3191090089499</v>
-      </c>
-      <c r="G12" s="1">
-        <f t="shared" si="0"/>
-        <v>-172.20192785998299</v>
-      </c>
-      <c r="H12" s="1">
-        <f t="shared" si="1"/>
-        <v>6.7986818347553299</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="2"/>
-        <v>20.396045504265992</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="3"/>
-        <v>-416.12048076068629</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="4"/>
-        <v>5318.1842906905331</v>
-      </c>
+        <v>6020.0177014463734</v>
+      </c>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <f>(B11+B12)/2</f>
-        <v>-174.9314587197635</v>
-      </c>
-      <c r="C13">
-        <f t="shared" ref="C13:N13" si="23">(C11+C12)/2</f>
-        <v>6.7986818347553299</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="23"/>
-        <v>-1020.2087310486176</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="23"/>
-        <v>1831.6211584221051</v>
-      </c>
-      <c r="G13">
+        <v>-1.0516196081510549</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" ref="C13:F13" si="22">(C11+C12)/2</f>
+        <v>40.955914667222899</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="22"/>
+        <v>-1546.7242130315249</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="22"/>
+        <v>2101.2753302246151</v>
+      </c>
+      <c r="G13" s="2">
         <f>(G11+G12)/2</f>
-        <v>-174.9314587197635</v>
-      </c>
-      <c r="H13">
-        <f t="shared" ref="H13" si="24">(H11+H12)/2</f>
-        <v>6.7986818347553299</v>
-      </c>
-      <c r="I13">
-        <f t="shared" ref="I13" si="25">(I11+I12)/2</f>
-        <v>20.396045504265992</v>
-      </c>
-      <c r="J13">
-        <f t="shared" ref="J13" si="26">(J11+J12)/2</f>
-        <v>-382.57827414323157</v>
-      </c>
-      <c r="K13">
-        <f t="shared" ref="K13" si="27">(K11+K12)/2</f>
-        <v>4884.3230891256135</v>
-      </c>
-      <c r="L13">
-        <f t="shared" ref="L13" si="28">(L11+L12)/2</f>
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <f t="shared" ref="M13" si="29">(M11+M12)/2</f>
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <f t="shared" ref="N13" si="30">(N11+N12)/2</f>
-        <v>0</v>
-      </c>
+        <v>-1.0516196081510549</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" ref="H13" si="23">(H11+H12)/2</f>
+        <v>40.955914667222899</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" ref="I13" si="24">(I11+I12)/2</f>
+        <v>122.8677440016687</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" ref="J13" si="25">(J11+J12)/2</f>
+        <v>-4124.5979014174</v>
+      </c>
+      <c r="K13" s="2">
+        <f t="shared" ref="K13" si="26">(K11+K12)/2</f>
+        <v>5603.4008805989733</v>
+      </c>
+      <c r="L13" s="2">
+        <f t="shared" ref="L13" si="27">(L11+L12)/2</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <f t="shared" ref="M13" si="28">(M11+M12)/2</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <f t="shared" ref="N13" si="29">(N11+N12)/2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Fitting Parameters/parameters.xlsx
+++ b/Fitting Parameters/parameters.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1ed250f2050058a0/progmrams/Guleria2012/Fitting Parameters/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jinno\OneDrive\progmrams\Guleria2012\Fitting Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="248" documentId="11_AD4D066CA252ABDACC1048B6C911F2E273EEDF49" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AD018BB-56D6-47AC-9366-7326AFC03F23}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693B1A4A-A784-47FF-B843-092769D612BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="14400" windowHeight="7810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
-    <sheet name="Momentum Fit" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Momentum Fit" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
   <si>
     <t>a1</t>
     <phoneticPr fontId="1"/>
@@ -87,10 +88,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>\rho0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1/fm^{-3}</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -165,6 +162,55 @@
   <si>
     <t>GKW3_medium</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2022/10/15 refit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GKW2_lower(rho&lt;1.5)+Kohno2(k&lt;1.0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GKW2_upper(rho&lt;1.5)+Kohno2(k&lt;1.0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GKW2_medium(rho&lt;1.5)+Kohno2(k&lt;1.0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GKW3_lower(rho&lt;1.5)+Kohno3(k&lt;1.0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GKW3_upper(rho&lt;1.5)+Kohno3(k&lt;1.0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GKW3_medium(rho&lt;1.5)+Kohno3(k&lt;1.0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rho0</t>
+  </si>
+  <si>
+    <t>GKW2_lower(rho&lt;1.5)</t>
+  </si>
+  <si>
+    <t>GKW2_upper(rho&lt;1.5)</t>
+  </si>
+  <si>
+    <t>GKW2_medium(rho&lt;1.5)</t>
+  </si>
+  <si>
+    <t>GKW3_lower(rho&lt;1.5)</t>
+  </si>
+  <si>
+    <t>GKW3_upper(rho&lt;1.5)</t>
+  </si>
+  <si>
+    <t>GKW3_medium(rho&lt;1.5)</t>
   </si>
 </sst>
 </file>
@@ -229,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -239,6 +285,11 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -520,27 +571,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="E12" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="B1" s="2">
         <f>0.16</f>
         <v>0.16</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -572,7 +623,7 @@
         <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>5</v>
@@ -598,7 +649,7 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2">
         <f>-154.9/($B$1)</f>
@@ -650,7 +701,7 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2">
         <f>-80.1/($B$1)</f>
@@ -702,7 +753,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="3">
         <v>-0.891698132616356</v>
@@ -745,7 +796,7 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="3">
         <v>-0.91775431287383902</v>
@@ -788,7 +839,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2">
         <f>(B5+B6)/2</f>
@@ -844,7 +895,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1">
         <v>-180.63583418075299</v>
@@ -887,7 +938,7 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="3">
         <v>-1.00247856635217</v>
@@ -930,7 +981,7 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="2">
         <f>(B8+B9)/2</f>
@@ -986,7 +1037,7 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="3">
         <v>-1.03492527391509</v>
@@ -1029,7 +1080,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="3">
         <v>-1.06831394238702</v>
@@ -1072,7 +1123,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2">
         <f>(B11+B12)/2</f>
@@ -1128,22 +1179,543 @@
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="B15" s="1"/>
+      <c r="A15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="B16" s="1"/>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="1"/>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="2:2">
+      <c r="A16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="1">
+        <v>-397.000100838668</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>-188.15044914388301</v>
+      </c>
+      <c r="F16">
+        <v>978.11119750792705</v>
+      </c>
+      <c r="G16" s="2">
+        <f>B16</f>
+        <v>-397.000100838668</v>
+      </c>
+      <c r="H16" s="2">
+        <f>C16</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <f>3*H16</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <f>8/3*E16</f>
+        <v>-501.73453105035469</v>
+      </c>
+      <c r="K16" s="2">
+        <f>8/3*F16</f>
+        <v>2608.2965266878055</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="1">
+        <v>-307.41664799767102</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>-525.74679895270299</v>
+      </c>
+      <c r="F17">
+        <v>1308.21875947172</v>
+      </c>
+      <c r="G17" s="2">
+        <f>B17</f>
+        <v>-307.41664799767102</v>
+      </c>
+      <c r="H17" s="2">
+        <f>C17</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <f>3*H17</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <f>8/3*E17</f>
+        <v>-1401.9914638738746</v>
+      </c>
+      <c r="K17" s="2">
+        <f>8/3*F17</f>
+        <v>3488.5833585912533</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18">
+        <f>(B16+B17)/2</f>
+        <v>-352.20837441816951</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ref="C18:K18" si="30">(C16+C17)/2</f>
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="30"/>
+        <v>-356.94862404829303</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="30"/>
+        <v>1143.1649784898236</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="30"/>
+        <v>-352.20837441816951</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="30"/>
+        <v>-951.86299746211466</v>
+      </c>
+      <c r="K18">
+        <f>(K16+K17)/2</f>
+        <v>3048.4399426395294</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="1">
+        <v>-414.44314255397597</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>-296.37382739644102</v>
+      </c>
+      <c r="F19">
+        <v>1312.0856340005701</v>
+      </c>
+      <c r="G19" s="2">
+        <f>B19</f>
+        <v>-414.44314255397597</v>
+      </c>
+      <c r="H19" s="2">
+        <f>C19</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
+        <f>3*H19</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
+        <f>8/3*E19</f>
+        <v>-790.33020639050937</v>
+      </c>
+      <c r="K19" s="2">
+        <f>8/3*F19</f>
+        <v>3498.8950240015201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="1">
+        <v>-362.11045492096298</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>-514.97084201832104</v>
+      </c>
+      <c r="F20">
+        <v>1543.4774801026899</v>
+      </c>
+      <c r="G20" s="2">
+        <f>B20</f>
+        <v>-362.11045492096298</v>
+      </c>
+      <c r="H20" s="2">
+        <f>C20</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <f>3*H20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
+        <f>8/3*E20</f>
+        <v>-1373.2555787155227</v>
+      </c>
+      <c r="K20" s="2">
+        <f>8/3*F20</f>
+        <v>4115.9399469405062</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21">
+        <f>(B19+B20)/2</f>
+        <v>-388.27679873746945</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ref="C21:K21" si="31">(C19+C20)/2</f>
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="31"/>
+        <v>-405.67233470738103</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="31"/>
+        <v>1427.78155705163</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="31"/>
+        <v>-388.27679873746945</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="31"/>
+        <v>-1081.7928925530159</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="31"/>
+        <v>3807.4174854710132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="2"/>
       <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="6">
+        <v>-397.00010083713198</v>
+      </c>
+      <c r="C23" s="5">
+        <v>40.8415160727345</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0</v>
+      </c>
+      <c r="E23" s="5">
+        <v>-188.15044915006001</v>
+      </c>
+      <c r="F23" s="5">
+        <v>830.36586318670595</v>
+      </c>
+      <c r="G23" s="2">
+        <f>B23</f>
+        <v>-397.00010083713198</v>
+      </c>
+      <c r="H23" s="2">
+        <f>C23</f>
+        <v>40.8415160727345</v>
+      </c>
+      <c r="I23" s="2">
+        <f>3*H23</f>
+        <v>122.52454821820351</v>
+      </c>
+      <c r="J23" s="2">
+        <f>8/3*E23</f>
+        <v>-501.73453106682666</v>
+      </c>
+      <c r="K23" s="2">
+        <f>8/3*F23</f>
+        <v>2214.3089684978822</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="6">
+        <v>-307.41664803595302</v>
+      </c>
+      <c r="C24" s="5">
+        <v>40.8415160727345</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0</v>
+      </c>
+      <c r="E24" s="5">
+        <v>-525.74679880214296</v>
+      </c>
+      <c r="F24" s="5">
+        <v>1160.47342499917</v>
+      </c>
+      <c r="G24" s="2">
+        <f>B24</f>
+        <v>-307.41664803595302</v>
+      </c>
+      <c r="H24" s="2">
+        <f>C24</f>
+        <v>40.8415160727345</v>
+      </c>
+      <c r="I24" s="2">
+        <f>3*H24</f>
+        <v>122.52454821820351</v>
+      </c>
+      <c r="J24" s="2">
+        <f>8/3*E24</f>
+        <v>-1401.9914634723812</v>
+      </c>
+      <c r="K24" s="2">
+        <f>8/3*F24</f>
+        <v>3094.5957999977863</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="6">
+        <f>(B23+B24)*0.5</f>
+        <v>-352.2083744365425</v>
+      </c>
+      <c r="C25" s="6">
+        <f t="shared" ref="C25:F25" si="32">(C23+C24)*0.5</f>
+        <v>40.8415160727345</v>
+      </c>
+      <c r="D25" s="6">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="6">
+        <f t="shared" si="32"/>
+        <v>-356.94862397610149</v>
+      </c>
+      <c r="F25" s="6">
+        <f t="shared" si="32"/>
+        <v>995.41964409293792</v>
+      </c>
+      <c r="G25" s="6">
+        <f t="shared" ref="G25" si="33">(G23+G24)*0.5</f>
+        <v>-352.2083744365425</v>
+      </c>
+      <c r="H25" s="6">
+        <f t="shared" ref="H25" si="34">(H23+H24)*0.5</f>
+        <v>40.8415160727345</v>
+      </c>
+      <c r="I25" s="6">
+        <f t="shared" ref="I25" si="35">(I23+I24)*0.5</f>
+        <v>122.52454821820351</v>
+      </c>
+      <c r="J25" s="6">
+        <f t="shared" ref="J25" si="36">(J23+J24)*0.5</f>
+        <v>-951.86299726960397</v>
+      </c>
+      <c r="K25" s="6">
+        <f t="shared" ref="K25" si="37">(K23+K24)*0.5</f>
+        <v>2654.4523842478343</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="6">
+        <v>-414.44314255799202</v>
+      </c>
+      <c r="C26" s="5">
+        <v>53.536513248776998</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0</v>
+      </c>
+      <c r="E26" s="5">
+        <v>-296.37382738053299</v>
+      </c>
+      <c r="F26" s="5">
+        <v>1118.4157899330301</v>
+      </c>
+      <c r="G26" s="2">
+        <f>B26</f>
+        <v>-414.44314255799202</v>
+      </c>
+      <c r="H26" s="2">
+        <f>C26</f>
+        <v>53.536513248776998</v>
+      </c>
+      <c r="I26" s="2">
+        <f>3*H26</f>
+        <v>160.609539746331</v>
+      </c>
+      <c r="J26" s="2">
+        <f>8/3*E26</f>
+        <v>-790.33020634808793</v>
+      </c>
+      <c r="K26" s="2">
+        <f>8/3*F26</f>
+        <v>2982.4421064880798</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="6">
+        <v>-362.11045491669501</v>
+      </c>
+      <c r="C27" s="5">
+        <v>53.536513248776998</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0</v>
+      </c>
+      <c r="E27" s="5">
+        <v>-514.97084203504198</v>
+      </c>
+      <c r="F27" s="5">
+        <v>1349.8076360666601</v>
+      </c>
+      <c r="G27" s="2">
+        <f>B27</f>
+        <v>-362.11045491669501</v>
+      </c>
+      <c r="H27" s="2">
+        <f>C27</f>
+        <v>53.536513248776998</v>
+      </c>
+      <c r="I27" s="2">
+        <f>3*H27</f>
+        <v>160.609539746331</v>
+      </c>
+      <c r="J27" s="2">
+        <f>8/3*E27</f>
+        <v>-1373.2555787601118</v>
+      </c>
+      <c r="K27" s="2">
+        <f>8/3*F27</f>
+        <v>3599.4870295110932</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="6">
+        <f>(B26+B27)*0.5</f>
+        <v>-388.27679873734348</v>
+      </c>
+      <c r="C28" s="6">
+        <f t="shared" ref="C28:F28" si="38">(C26+C27)*0.5</f>
+        <v>53.536513248776998</v>
+      </c>
+      <c r="D28" s="6">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="6">
+        <f t="shared" si="38"/>
+        <v>-405.67233470778751</v>
+      </c>
+      <c r="F28" s="6">
+        <f t="shared" si="38"/>
+        <v>1234.1117129998452</v>
+      </c>
+      <c r="G28" s="6">
+        <f t="shared" ref="G28" si="39">(G26+G27)*0.5</f>
+        <v>-388.27679873734348</v>
+      </c>
+      <c r="H28" s="6">
+        <f t="shared" ref="H28" si="40">(H26+H27)*0.5</f>
+        <v>53.536513248776998</v>
+      </c>
+      <c r="I28" s="6">
+        <f t="shared" ref="I28" si="41">(I26+I27)*0.5</f>
+        <v>160.609539746331</v>
+      </c>
+      <c r="J28" s="6">
+        <f t="shared" ref="J28" si="42">(J26+J27)*0.5</f>
+        <v>-1081.7928925540998</v>
+      </c>
+      <c r="K28" s="6">
+        <f t="shared" ref="K28" si="43">(K26+K27)*0.5</f>
+        <v>3290.9645679995865</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1153,6 +1725,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F940CB-61E7-4250-BE6B-570A540D684B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7DDAF3C-3C61-4D75-A461-FDF7E325E73E}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -1167,20 +1752,20 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
         <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>-29.098371987741601</v>
@@ -1191,7 +1776,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>-28.278161390790601</v>
@@ -1202,7 +1787,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>-29.953285077587601</v>

--- a/Fitting Parameters/parameters.xlsx
+++ b/Fitting Parameters/parameters.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jinno\OneDrive\progmrams\Guleria2012\Fitting Parameters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1ed250f2050058a0/progmrams/Guleria2012/Fitting Parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693B1A4A-A784-47FF-B843-092769D612BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{693B1A4A-A784-47FF-B843-092769D612BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B122261-5323-4901-AA11-B0183527FB3A}"/>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="2240" windowWidth="14400" windowHeight="7810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
   <si>
     <t>a1</t>
     <phoneticPr fontId="1"/>
@@ -211,13 +211,35 @@
   </si>
   <si>
     <t>GKW3_medium(rho&lt;1.5)</t>
+  </si>
+  <si>
+    <t>2022/10/21 momentum dependence refit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GKW2_lower(rho&lt;1.5)+Kohno2(k&lt;1.5)</t>
+  </si>
+  <si>
+    <t>GKW2_upper(rho&lt;1.5)+Kohno2(k&lt;1.5)</t>
+  </si>
+  <si>
+    <t>GKW2_medium(rho&lt;1.5)+Kohno2(k&lt;1.5)</t>
+  </si>
+  <si>
+    <t>GKW3_lower(rho&lt;1.5)+Kohno3(k&lt;1.5)</t>
+  </si>
+  <si>
+    <t>GKW3_upper(rho&lt;1.5)+Kohno3(k&lt;1.5)</t>
+  </si>
+  <si>
+    <t>GKW3_medium(rho&lt;1.5)+Kohno3(k&lt;1.5)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,6 +276,12 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -275,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -291,6 +319,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -571,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E12" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36:K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1302,7 +1331,7 @@
         <v>-352.20837441816951</v>
       </c>
       <c r="C18">
-        <f t="shared" ref="C18:K18" si="30">(C16+C17)/2</f>
+        <f t="shared" ref="C18:J18" si="30">(C16+C17)/2</f>
         <v>0</v>
       </c>
       <c r="D18">
@@ -1715,6 +1744,291 @@
       <c r="K28" s="6">
         <f t="shared" ref="K28" si="43">(K26+K27)*0.5</f>
         <v>3290.9645679995865</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="7">
+        <v>-397.00010084534301</v>
+      </c>
+      <c r="C31" s="5">
+        <v>39.350482632122898</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" s="5">
+        <v>-188.150449117742</v>
+      </c>
+      <c r="F31" s="5">
+        <v>835.75971860847199</v>
+      </c>
+      <c r="G31" s="2">
+        <f>B31</f>
+        <v>-397.00010084534301</v>
+      </c>
+      <c r="H31" s="2">
+        <f>C31</f>
+        <v>39.350482632122898</v>
+      </c>
+      <c r="I31" s="2">
+        <f>3*H31</f>
+        <v>118.0514478963687</v>
+      </c>
+      <c r="J31" s="2">
+        <f>8/3*F31</f>
+        <v>2228.692582955925</v>
+      </c>
+      <c r="K31" s="2">
+        <f>8/3*F31</f>
+        <v>2228.692582955925</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="7">
+        <v>-307.416648045557</v>
+      </c>
+      <c r="C32" s="5">
+        <v>39.350482632122898</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" s="5">
+        <v>-525.74679876459902</v>
+      </c>
+      <c r="F32" s="5">
+        <v>1165.8672804160999</v>
+      </c>
+      <c r="G32" s="2">
+        <f>B32</f>
+        <v>-307.416648045557</v>
+      </c>
+      <c r="H32" s="2">
+        <f>C32</f>
+        <v>39.350482632122898</v>
+      </c>
+      <c r="I32" s="2">
+        <f>3*H32</f>
+        <v>118.0514478963687</v>
+      </c>
+      <c r="J32" s="2">
+        <f>8/3*F32</f>
+        <v>3108.9794144429329</v>
+      </c>
+      <c r="K32" s="2">
+        <f>8/3*F32</f>
+        <v>3108.9794144429329</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="6">
+        <f>(B31+B32)/2</f>
+        <v>-352.20837444544998</v>
+      </c>
+      <c r="C33" s="6">
+        <f t="shared" ref="C33:K33" si="44">(C31+C32)/2</f>
+        <v>39.350482632122898</v>
+      </c>
+      <c r="D33" s="6">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="6">
+        <f t="shared" si="44"/>
+        <v>-356.94862394117052</v>
+      </c>
+      <c r="F33" s="6">
+        <f t="shared" si="44"/>
+        <v>1000.8134995122859</v>
+      </c>
+      <c r="G33" s="6">
+        <f t="shared" si="44"/>
+        <v>-352.20837444544998</v>
+      </c>
+      <c r="H33" s="6">
+        <f t="shared" si="44"/>
+        <v>39.350482632122898</v>
+      </c>
+      <c r="I33" s="6">
+        <f t="shared" si="44"/>
+        <v>118.0514478963687</v>
+      </c>
+      <c r="J33" s="6">
+        <f t="shared" si="44"/>
+        <v>2668.8359986994292</v>
+      </c>
+      <c r="K33" s="6">
+        <f t="shared" si="44"/>
+        <v>2668.8359986994292</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="7">
+        <v>-414.44314258998099</v>
+      </c>
+      <c r="C34" s="5">
+        <v>47.278660369469797</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34" s="5">
+        <v>-296.37382725478898</v>
+      </c>
+      <c r="F34" s="5">
+        <v>1141.0537487988499</v>
+      </c>
+      <c r="G34" s="2">
+        <f>B34</f>
+        <v>-414.44314258998099</v>
+      </c>
+      <c r="H34" s="2">
+        <f>C34</f>
+        <v>47.278660369469797</v>
+      </c>
+      <c r="I34" s="2">
+        <f>3*H34</f>
+        <v>141.83598110840938</v>
+      </c>
+      <c r="J34" s="2">
+        <f>8/3*F34</f>
+        <v>3042.8099967969329</v>
+      </c>
+      <c r="K34" s="2">
+        <f>8/3*F34</f>
+        <v>3042.8099967969329</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="7">
+        <v>-362.11045496717401</v>
+      </c>
+      <c r="C35" s="5">
+        <v>47.278660369469797</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" s="5">
+        <v>-514.970841835893</v>
+      </c>
+      <c r="F35" s="5">
+        <v>1372.4455948611501</v>
+      </c>
+      <c r="G35" s="2">
+        <f>B35</f>
+        <v>-362.11045496717401</v>
+      </c>
+      <c r="H35" s="2">
+        <f>C35</f>
+        <v>47.278660369469797</v>
+      </c>
+      <c r="I35" s="2">
+        <f>3*H35</f>
+        <v>141.83598110840938</v>
+      </c>
+      <c r="J35" s="2">
+        <f>8/3*F35</f>
+        <v>3659.8549196297336</v>
+      </c>
+      <c r="K35" s="2">
+        <f>8/3*F35</f>
+        <v>3659.8549196297336</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="6">
+        <f>(B34+B35)/2</f>
+        <v>-388.27679877857747</v>
+      </c>
+      <c r="C36" s="6">
+        <f t="shared" ref="C36" si="45">(C34+C35)/2</f>
+        <v>47.278660369469797</v>
+      </c>
+      <c r="D36" s="6">
+        <f t="shared" ref="D36" si="46">(D34+D35)/2</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="6">
+        <f t="shared" ref="E36" si="47">(E34+E35)/2</f>
+        <v>-405.67233454534096</v>
+      </c>
+      <c r="F36" s="6">
+        <f t="shared" ref="F36" si="48">(F34+F35)/2</f>
+        <v>1256.7496718299999</v>
+      </c>
+      <c r="G36" s="6">
+        <f t="shared" ref="G36" si="49">(G34+G35)/2</f>
+        <v>-388.27679877857747</v>
+      </c>
+      <c r="H36" s="6">
+        <f t="shared" ref="H36" si="50">(H34+H35)/2</f>
+        <v>47.278660369469797</v>
+      </c>
+      <c r="I36" s="6">
+        <f t="shared" ref="I36" si="51">(I34+I35)/2</f>
+        <v>141.83598110840938</v>
+      </c>
+      <c r="J36" s="6">
+        <f t="shared" ref="J36" si="52">(J34+J35)/2</f>
+        <v>3351.3324582133332</v>
+      </c>
+      <c r="K36" s="6">
+        <f t="shared" ref="K36" si="53">(K34+K35)/2</f>
+        <v>3351.3324582133332</v>
       </c>
     </row>
   </sheetData>
